--- a/Doc/数据库设计/CMS.xlsx
+++ b/Doc/数据库设计/CMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PublishProduct" sheetId="11" r:id="rId1"/>
@@ -3174,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3274,7 +3274,7 @@
         <v>173</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>1</v>
@@ -3477,6 +3477,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3484,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
